--- a/analyzeResults/購買分析結果.xlsx
+++ b/analyzeResults/購買分析結果.xlsx
@@ -462,72 +462,72 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="B5" t="n">
-        <v>57</v>
+        <v>350</v>
       </c>
       <c r="C5" t="n">
-        <v>17543</v>
+        <v>2857</v>
       </c>
       <c r="D5" t="n">
-        <v>999951</v>
+        <v>999950</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="B6" t="n">
-        <v>70.5</v>
+        <v>326</v>
       </c>
       <c r="C6" t="n">
-        <v>14184</v>
+        <v>3067</v>
       </c>
       <c r="D6" t="n">
-        <v>999972</v>
+        <v>999842</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B7" t="n">
-        <v>76.3</v>
+        <v>284.5</v>
       </c>
       <c r="C7" t="n">
-        <v>13106</v>
+        <v>3514</v>
       </c>
       <c r="D7" t="n">
-        <v>999987.7999999999</v>
+        <v>999733</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.95</v>
+        <v>254</v>
       </c>
       <c r="C8" t="n">
-        <v>43572</v>
+        <v>3937</v>
       </c>
       <c r="D8" t="n">
-        <v>999977.4</v>
+        <v>999998</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="B9" t="n">
-        <v>150.5</v>
+        <v>200.5</v>
       </c>
       <c r="C9" t="n">
-        <v>6644</v>
+        <v>4987</v>
       </c>
       <c r="D9" t="n">
-        <v>999922</v>
+        <v>999893.5</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>189.800000000163</v>
+        <v>583.5</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8997374.9</v>
+        <v>5388719.5</v>
       </c>
     </row>
     <row r="18">
@@ -581,72 +581,72 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="B19" t="n">
-        <v>71.7</v>
+        <v>370</v>
       </c>
       <c r="C19" t="n">
-        <v>25097</v>
+        <v>2912</v>
       </c>
       <c r="D19" t="n">
-        <v>1799454.9</v>
+        <v>1077440</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B20" t="n">
-        <v>73.09999999999999</v>
+        <v>352</v>
       </c>
       <c r="C20" t="n">
-        <v>24616</v>
+        <v>3061</v>
       </c>
       <c r="D20" t="n">
-        <v>1799429.6</v>
+        <v>1077472</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="B21" t="n">
-        <v>8.300000000000001</v>
+        <v>327.5</v>
       </c>
       <c r="C21" t="n">
-        <v>216804</v>
+        <v>3290</v>
       </c>
       <c r="D21" t="n">
-        <v>1799473.2</v>
+        <v>1077475</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B22" t="n">
-        <v>21.3</v>
+        <v>306</v>
       </c>
       <c r="C22" t="n">
-        <v>84482</v>
+        <v>3522</v>
       </c>
       <c r="D22" t="n">
-        <v>1799466.6</v>
+        <v>1077732</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B23" t="n">
-        <v>306</v>
+        <v>265.5</v>
       </c>
       <c r="C23" t="n">
-        <v>5880</v>
+        <v>4059</v>
       </c>
       <c r="D23" t="n">
-        <v>1799280</v>
+        <v>1077664.5</v>
       </c>
     </row>
     <row r="25">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>270.6000000000931</v>
+        <v>936</v>
       </c>
     </row>
     <row r="29">
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>21435651.45</v>
+        <v>5840373.5</v>
       </c>
     </row>
     <row r="32">
@@ -700,72 +700,72 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="B33" t="n">
-        <v>69.7</v>
+        <v>483.5</v>
       </c>
       <c r="C33" t="n">
-        <v>61508</v>
+        <v>2415</v>
       </c>
       <c r="D33" t="n">
-        <v>4287107.600000001</v>
+        <v>1167652.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B34" t="n">
-        <v>483.5</v>
+        <v>324.5</v>
       </c>
       <c r="C34" t="n">
-        <v>8866</v>
+        <v>3599</v>
       </c>
       <c r="D34" t="n">
-        <v>4286711</v>
+        <v>1167875.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B35" t="n">
-        <v>65.2</v>
+        <v>324.5</v>
       </c>
       <c r="C35" t="n">
-        <v>65753</v>
+        <v>3599</v>
       </c>
       <c r="D35" t="n">
-        <v>4287095.600000001</v>
+        <v>1167875.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" t="n">
-        <v>324.5</v>
+        <v>304.5</v>
       </c>
       <c r="C36" t="n">
-        <v>13211</v>
+        <v>3836</v>
       </c>
       <c r="D36" t="n">
-        <v>4286969.5</v>
+        <v>1168062</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="B37" t="n">
-        <v>19.3</v>
+        <v>299</v>
       </c>
       <c r="C37" t="n">
-        <v>222131</v>
+        <v>3906</v>
       </c>
       <c r="D37" t="n">
-        <v>4287128.3</v>
+        <v>1167894</v>
       </c>
     </row>
     <row r="39">
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>639.4500000001863</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="43">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>15884734.85</v>
+        <v>4866115.5</v>
       </c>
     </row>
     <row r="46">
@@ -819,72 +819,72 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B47" t="n">
-        <v>47.6</v>
+        <v>327.5</v>
       </c>
       <c r="C47" t="n">
-        <v>66742</v>
+        <v>2971</v>
       </c>
       <c r="D47" t="n">
-        <v>3176919.2</v>
+        <v>973002.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B48" t="n">
-        <v>39.55</v>
+        <v>318</v>
       </c>
       <c r="C48" t="n">
-        <v>80327</v>
+        <v>3060</v>
       </c>
       <c r="D48" t="n">
-        <v>3176932.85</v>
+        <v>973080</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B49" t="n">
-        <v>318</v>
+        <v>305.5</v>
       </c>
       <c r="C49" t="n">
-        <v>9990</v>
+        <v>3185</v>
       </c>
       <c r="D49" t="n">
-        <v>3176820</v>
+        <v>973017.5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="B50" t="n">
-        <v>327.5</v>
+        <v>279</v>
       </c>
       <c r="C50" t="n">
-        <v>9700</v>
+        <v>3488</v>
       </c>
       <c r="D50" t="n">
-        <v>3176750</v>
+        <v>973152</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B51" t="n">
-        <v>305.5</v>
+        <v>275</v>
       </c>
       <c r="C51" t="n">
-        <v>10399</v>
+        <v>3538</v>
       </c>
       <c r="D51" t="n">
-        <v>3176894.5</v>
+        <v>972950</v>
       </c>
     </row>
     <row r="53">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>418.2999999988824</v>
+        <v>913.5</v>
       </c>
     </row>
     <row r="57">
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>19897777</v>
+        <v>6091682.5</v>
       </c>
     </row>
     <row r="60">
@@ -938,72 +938,72 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B61" t="n">
-        <v>44.1</v>
+        <v>701</v>
       </c>
       <c r="C61" t="n">
-        <v>90239</v>
+        <v>1737</v>
       </c>
       <c r="D61" t="n">
-        <v>3979539.9</v>
+        <v>1217637</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B62" t="n">
-        <v>51.5</v>
+        <v>390</v>
       </c>
       <c r="C62" t="n">
-        <v>77272</v>
+        <v>3123</v>
       </c>
       <c r="D62" t="n">
-        <v>3979508</v>
+        <v>1217970</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B63" t="n">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="C63" t="n">
-        <v>10203</v>
+        <v>3223</v>
       </c>
       <c r="D63" t="n">
-        <v>3979170</v>
+        <v>1218294</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B64" t="n">
-        <v>701</v>
+        <v>327</v>
       </c>
       <c r="C64" t="n">
-        <v>5676</v>
+        <v>3725</v>
       </c>
       <c r="D64" t="n">
-        <v>3978876</v>
+        <v>1218075</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="B65" t="n">
-        <v>204</v>
+        <v>318.5</v>
       </c>
       <c r="C65" t="n">
-        <v>19507</v>
+        <v>3825</v>
       </c>
       <c r="D65" t="n">
-        <v>3979428</v>
+        <v>1218262.5</v>
       </c>
     </row>
     <row r="67">
@@ -1013,7 +1013,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1255.099999999627</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="71">
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>25515745.2</v>
+        <v>5931077</v>
       </c>
     </row>
     <row r="74">
@@ -1057,72 +1057,72 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B75" t="n">
-        <v>62.4</v>
+        <v>879</v>
       </c>
       <c r="C75" t="n">
-        <v>81781</v>
+        <v>1349</v>
       </c>
       <c r="D75" t="n">
-        <v>5103134.399999999</v>
+        <v>1185771</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="B76" t="n">
-        <v>97.5</v>
+        <v>571</v>
       </c>
       <c r="C76" t="n">
-        <v>52339</v>
+        <v>2077</v>
       </c>
       <c r="D76" t="n">
-        <v>5103052.5</v>
+        <v>1185967</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B77" t="n">
-        <v>361</v>
+        <v>396.5</v>
       </c>
       <c r="C77" t="n">
-        <v>14136</v>
+        <v>2991</v>
       </c>
       <c r="D77" t="n">
-        <v>5103096</v>
+        <v>1185931.5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B78" t="n">
-        <v>11.45</v>
+        <v>361</v>
       </c>
       <c r="C78" t="n">
-        <v>445689</v>
+        <v>3285</v>
       </c>
       <c r="D78" t="n">
-        <v>5103139.05</v>
+        <v>1185885</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B79" t="n">
-        <v>879</v>
+        <v>278.5</v>
       </c>
       <c r="C79" t="n">
-        <v>5805</v>
+        <v>4259</v>
       </c>
       <c r="D79" t="n">
-        <v>5102595</v>
+        <v>1186131.5</v>
       </c>
     </row>
     <row r="81">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>728.2500000009313</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="85">
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>23182166.05</v>
+        <v>4630386.5</v>
       </c>
     </row>
     <row r="88">
@@ -1176,16 +1176,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B89" t="n">
-        <v>69</v>
+        <v>630</v>
       </c>
       <c r="C89" t="n">
-        <v>67194</v>
+        <v>1469</v>
       </c>
       <c r="D89" t="n">
-        <v>4636386</v>
+        <v>925470</v>
       </c>
     </row>
     <row r="90">
@@ -1196,52 +1196,52 @@
         <v>365</v>
       </c>
       <c r="C90" t="n">
-        <v>12702</v>
+        <v>2537</v>
       </c>
       <c r="D90" t="n">
-        <v>4636230</v>
+        <v>926005</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B91" t="n">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="C91" t="n">
-        <v>17171</v>
+        <v>3097</v>
       </c>
       <c r="D91" t="n">
-        <v>4636170</v>
+        <v>926003</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B92" t="n">
-        <v>630</v>
+        <v>279.5</v>
       </c>
       <c r="C92" t="n">
-        <v>7359</v>
+        <v>3313</v>
       </c>
       <c r="D92" t="n">
-        <v>4636170</v>
+        <v>925983.5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B93" t="n">
-        <v>45.5</v>
+        <v>273.5</v>
       </c>
       <c r="C93" t="n">
-        <v>101899</v>
+        <v>3386</v>
       </c>
       <c r="D93" t="n">
-        <v>4636404.5</v>
+        <v>926071</v>
       </c>
     </row>
     <row r="95">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>805.5500000007451</v>
+        <v>854</v>
       </c>
     </row>
     <row r="99">
@@ -1268,7 +1268,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>34722437.05</v>
+        <v>6142345.5</v>
       </c>
     </row>
     <row r="102">
@@ -1295,72 +1295,72 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B103" t="n">
-        <v>66.90000000000001</v>
+        <v>1460</v>
       </c>
       <c r="C103" t="n">
-        <v>103803</v>
+        <v>841</v>
       </c>
       <c r="D103" t="n">
-        <v>6944420.7</v>
+        <v>1227860</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B104" t="n">
-        <v>10.8</v>
+        <v>577</v>
       </c>
       <c r="C104" t="n">
-        <v>643008</v>
+        <v>2129</v>
       </c>
       <c r="D104" t="n">
-        <v>6944486.4</v>
+        <v>1228433</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B105" t="n">
-        <v>577</v>
+        <v>400</v>
       </c>
       <c r="C105" t="n">
-        <v>12035</v>
+        <v>3071</v>
       </c>
       <c r="D105" t="n">
-        <v>6944195</v>
+        <v>1228400</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B106" t="n">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="C106" t="n">
-        <v>17361</v>
+        <v>3356</v>
       </c>
       <c r="D106" t="n">
-        <v>6944400</v>
+        <v>1228296</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B107" t="n">
-        <v>1460</v>
+        <v>327</v>
       </c>
       <c r="C107" t="n">
-        <v>4756</v>
+        <v>3756</v>
       </c>
       <c r="D107" t="n">
-        <v>6943760</v>
+        <v>1228212</v>
       </c>
     </row>
     <row r="109">
@@ -1370,7 +1370,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1174.95000000298</v>
+        <v>1144.5</v>
       </c>
     </row>
     <row r="113">
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>61017670.45</v>
+        <v>11043769.5</v>
       </c>
     </row>
     <row r="116">
@@ -1414,72 +1414,72 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B117" t="n">
-        <v>83.3</v>
+        <v>2225</v>
       </c>
       <c r="C117" t="n">
-        <v>146501</v>
+        <v>992</v>
       </c>
       <c r="D117" t="n">
-        <v>12203533.3</v>
+        <v>2207200</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B118" t="n">
-        <v>34.85</v>
+        <v>966</v>
       </c>
       <c r="C118" t="n">
-        <v>350173</v>
+        <v>2286</v>
       </c>
       <c r="D118" t="n">
-        <v>12203529.05</v>
+        <v>2208276</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B119" t="n">
-        <v>21.2</v>
+        <v>946</v>
       </c>
       <c r="C119" t="n">
-        <v>575638</v>
+        <v>2334</v>
       </c>
       <c r="D119" t="n">
-        <v>12203525.6</v>
+        <v>2207964</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="B120" t="n">
-        <v>108</v>
+        <v>838</v>
       </c>
       <c r="C120" t="n">
-        <v>112995</v>
+        <v>2635</v>
       </c>
       <c r="D120" t="n">
-        <v>12203460</v>
+        <v>2208130</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B121" t="n">
-        <v>966</v>
+        <v>486</v>
       </c>
       <c r="C121" t="n">
-        <v>12633</v>
+        <v>4544</v>
       </c>
       <c r="D121" t="n">
-        <v>12203478</v>
+        <v>2208384</v>
       </c>
     </row>
     <row r="123">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>144.5000000074506</v>
+        <v>3815.5</v>
       </c>
     </row>
     <row r="127">
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>71822320.90000001</v>
+        <v>11130039.5</v>
       </c>
     </row>
     <row r="130">
@@ -1533,72 +1533,72 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B131" t="n">
-        <v>85.09999999999999</v>
+        <v>2300</v>
       </c>
       <c r="C131" t="n">
-        <v>168795</v>
+        <v>967</v>
       </c>
       <c r="D131" t="n">
-        <v>14364454.5</v>
+        <v>2224100</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B132" t="n">
-        <v>31.65</v>
+        <v>1580</v>
       </c>
       <c r="C132" t="n">
-        <v>453853</v>
+        <v>1408</v>
       </c>
       <c r="D132" t="n">
-        <v>14364447.45</v>
+        <v>2224640</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="B133" t="n">
-        <v>144.5</v>
+        <v>761</v>
       </c>
       <c r="C133" t="n">
-        <v>99408</v>
+        <v>2925</v>
       </c>
       <c r="D133" t="n">
-        <v>14364456</v>
+        <v>2225925</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="B134" t="n">
-        <v>13.3</v>
+        <v>622</v>
       </c>
       <c r="C134" t="n">
-        <v>1080034</v>
+        <v>3578</v>
       </c>
       <c r="D134" t="n">
-        <v>14364452.2</v>
+        <v>2225516</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B135" t="n">
-        <v>23.65</v>
+        <v>400</v>
       </c>
       <c r="C135" t="n">
-        <v>607376</v>
+        <v>5565</v>
       </c>
       <c r="D135" t="n">
-        <v>14364442.4</v>
+        <v>2226000</v>
       </c>
     </row>
     <row r="137">
@@ -1608,7 +1608,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>68.35000000335276</v>
+        <v>3858.5</v>
       </c>
     </row>
     <row r="141">
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>81524885.05</v>
+        <v>11316115.5</v>
       </c>
     </row>
     <row r="142">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>0.1630497701%</t>
+          <t>226.3223%</t>
         </is>
       </c>
     </row>
